--- a/TUGAS23_ZahraTalita_FDW1_MYSQL5/TUGAS23_ZahraTalita_FDW1_MYSQL5.xlsx
+++ b/TUGAS23_ZahraTalita_FDW1_MYSQL5/TUGAS23_ZahraTalita_FDW1_MYSQL5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db75a2858e492c1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\query_db\TUGAS23_ZahraTalita_FDW1_MYSQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6242C053-81DE-4412-AE3D-559C1246C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F65091-ED72-4EAD-A433-E1596ED8343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ADE9D8BE-B5C7-4D44-A5B8-26B7C01C33FA}"/>
+    <workbookView xWindow="14085" yWindow="2445" windowWidth="14070" windowHeight="9045" xr2:uid="{ADE9D8BE-B5C7-4D44-A5B8-26B7C01C33FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="83">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -229,6 +229,51 @@
   </si>
   <si>
     <t>Customer =&gt; Transaksi : adalah many to many. Karena banyak customer bisa melakukan banyak transaksi</t>
+  </si>
+  <si>
+    <t>Kategori Produk</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
+  </si>
+  <si>
+    <t>Makanan</t>
+  </si>
+  <si>
+    <t>Minuman</t>
+  </si>
+  <si>
+    <t>Pakaian</t>
+  </si>
+  <si>
+    <t>Kategori Barang</t>
+  </si>
+  <si>
+    <t>Kode Kategori</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Kategori barang =&gt; barang : adalah  one to many, karena satu kategori barang bisa menandia banyak barang</t>
   </si>
 </sst>
 </file>
@@ -347,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,16 +403,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,12 +421,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,10 +428,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC76F905-309A-4609-9F99-B3E551647350}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="59" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,130 +777,135 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="O3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="P3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>47</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>48</v>
       </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -868,59 +921,44 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1">
         <v>5000000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.02</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -932,55 +970,40 @@
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="1">
         <v>8000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>201</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>5000000</v>
       </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="2">
-        <v>201</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -996,59 +1019,44 @@
       <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1">
         <v>10000</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.05</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>202</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>8000</v>
       </c>
-      <c r="U9" s="1">
-        <v>2</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="2">
-        <v>201</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -1064,59 +1072,44 @@
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1">
         <v>95000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.1</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>203</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>10000</v>
       </c>
-      <c r="U10" s="1">
-        <v>3</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="1">
-        <v>202</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1128,55 +1121,38 @@
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>150000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>206</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>95000</v>
       </c>
-      <c r="U11" s="1">
-        <v>4</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" s="2">
-        <v>203</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>95000</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -1188,49 +1164,26 @@
       <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>2000000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="R12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>150000</v>
       </c>
-      <c r="U12" s="1">
-        <v>5</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W12" s="2">
-        <v>203</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>150000</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -1246,56 +1199,33 @@
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>16000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.1</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="P13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>2000000</v>
       </c>
-      <c r="U13" s="1">
-        <v>6</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W13" s="2">
-        <v>203</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -1307,55 +1237,33 @@
       <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <v>6000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="1"/>
+      <c r="P14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>16000</v>
       </c>
-      <c r="U14" s="1">
-        <v>7</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" s="2">
-        <v>204</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>16000</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -1371,59 +1279,38 @@
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1">
         <v>10000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>7</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.02</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>0.02</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>6000</v>
       </c>
-      <c r="U15" s="1">
-        <v>8</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" s="2">
-        <v>204</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>6000</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -1435,49 +1322,26 @@
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>95000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>0.05</v>
       </c>
-      <c r="U16" s="1">
-        <v>9</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="2">
-        <v>206</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>9000</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -1489,49 +1353,26 @@
       <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>8000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="M17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>0.1</v>
       </c>
-      <c r="U17" s="1">
-        <v>10</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="2">
-        <v>206</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>80000</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -1547,165 +1388,222 @@
       <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <v>6000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>0.05</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>0.02</v>
       </c>
-      <c r="U18" s="1">
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="2">
+        <v>201</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="2">
+        <v>201</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U23" s="1">
+        <v>5</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="1">
+        <v>202</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="U24" s="1">
+        <v>8</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" s="2">
-        <v>206</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>20000</v>
-      </c>
-      <c r="Z18" s="1">
+      <c r="P25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" s="2">
+        <v>203</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="1">
+        <v>95000</v>
+      </c>
+      <c r="U25" s="1">
         <v>2</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="U19" s="1">
-        <v>12</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W19" s="1">
-        <v>201</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>8000</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="O22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -1721,41 +1619,50 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="1">
         <v>5000000</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>0.02</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="2">
+        <v>203</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="1">
+        <v>150000</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>2</v>
       </c>
@@ -1771,41 +1678,50 @@
       <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="1">
         <v>8000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>0.02</v>
       </c>
-      <c r="O27" s="11">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.02</v>
+      <c r="P27" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="2">
+        <v>203</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2000000</v>
       </c>
       <c r="U27" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>3</v>
       </c>
@@ -1821,41 +1737,50 @@
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="1">
         <v>10000</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>8</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>0.05</v>
       </c>
-      <c r="O28" s="11">
-        <v>2</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.05</v>
+      <c r="P28" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="2">
+        <v>204</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="T28" s="1">
+        <v>16000</v>
       </c>
       <c r="U28" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>4</v>
       </c>
@@ -1871,41 +1796,50 @@
       <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="1">
         <v>95000</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>0.1</v>
       </c>
-      <c r="O29" s="11">
-        <v>3</v>
-      </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="2">
+        <v>204</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" s="1">
+        <v>6000</v>
+      </c>
+      <c r="U29" s="1">
+        <v>9</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>5</v>
       </c>
@@ -1921,32 +1855,50 @@
       <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1">
         <v>150000</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>0.1</v>
       </c>
+      <c r="P30" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="2">
+        <v>206</v>
+      </c>
       <c r="S30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="T30" s="1">
+        <v>9000</v>
       </c>
       <c r="U30" s="1">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>6</v>
       </c>
@@ -1962,32 +1914,50 @@
       <c r="G31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="1">
         <v>2000000</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>5</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>0.1</v>
       </c>
+      <c r="P31" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="2">
+        <v>206</v>
+      </c>
       <c r="S31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="T31" s="1">
+        <v>80000</v>
       </c>
       <c r="U31" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>7</v>
       </c>
@@ -2003,35 +1973,50 @@
       <c r="G32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="1">
         <v>16000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>0.1</v>
       </c>
-      <c r="O32" t="s">
-        <v>47</v>
+      <c r="P32" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="2">
+        <v>206</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="T32" s="1">
+        <v>20000</v>
       </c>
       <c r="U32" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>8</v>
       </c>
@@ -2047,41 +2032,50 @@
       <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="1">
         <v>6000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>9</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>0.1</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>51</v>
+      <c r="P33" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="1">
+        <v>201</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="T33" s="1">
+        <v>8000</v>
       </c>
       <c r="U33" s="1">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>9</v>
       </c>
@@ -2097,41 +2091,26 @@
       <c r="G34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="1">
         <v>9000</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>7</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>0.02</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P34" s="2">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U34" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>10</v>
       </c>
@@ -2147,32 +2126,26 @@
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="1">
         <v>80000</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>0.02</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="1">
-        <v>202</v>
-      </c>
-      <c r="Q35" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>11</v>
       </c>
@@ -2188,35 +2161,26 @@
       <c r="G36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="1">
         <v>20000</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>2</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>0.02</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" s="2">
-        <v>203</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>3</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>12</v>
       </c>
@@ -2232,121 +2196,81 @@
       <c r="G37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="1">
         <v>8000</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>12</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>0.05</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P37" s="2">
-        <v>206</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>1</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T37" s="14"/>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="S38" s="11">
-        <v>1</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="S39" s="11">
-        <v>2</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="S40" s="11">
-        <v>3</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="O43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="O44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C45" s="17" t="s">
         <v>65</v>
       </c>
@@ -2359,27 +2283,18 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
-      <c r="M45" s="15"/>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>201</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M45" s="17"/>
+      <c r="N45" s="10"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -2390,262 +2305,550 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
-      <c r="M46" s="15"/>
-      <c r="O46" s="1">
+      <c r="M46" s="17"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="P48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V49" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="P50" s="8">
         <v>2</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V50" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P51" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V51" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="T52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" s="1">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V53" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>201</v>
+      </c>
+      <c r="R56" s="8">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V56" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>202</v>
+      </c>
+      <c r="R57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>203</v>
+      </c>
+      <c r="R58" s="8">
+        <v>3</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>206</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U59" s="15"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T60" s="8">
+        <v>1</v>
+      </c>
+      <c r="U60" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T61" s="8">
+        <v>2</v>
+      </c>
+      <c r="U61" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T62" s="8">
+        <v>3</v>
+      </c>
+      <c r="U62" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R67" s="2">
+        <v>201</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T67" s="1">
+        <v>3</v>
+      </c>
+      <c r="U67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P68" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R68" s="2">
         <v>201</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T68" s="1">
         <v>5</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U68" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="O47" s="1">
+    <row r="69" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P69" s="1">
         <v>3</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R69" s="1">
         <v>202</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T69" s="1">
         <v>8</v>
       </c>
-      <c r="T47" s="1">
+      <c r="U69" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="O48" s="1">
+    <row r="70" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P70" s="1">
         <v>4</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R70" s="2">
         <v>203</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T70" s="1">
         <v>2</v>
       </c>
-      <c r="T48" s="1">
+      <c r="U70" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O49" s="1">
+    <row r="71" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P71" s="1">
         <v>5</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q71" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R71" s="2">
         <v>203</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="S71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T71" s="1">
         <v>1</v>
       </c>
-      <c r="T49" s="1">
+      <c r="U71" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="O50" s="1">
+    <row r="72" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P72" s="1">
         <v>6</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="Q72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="R72" s="2">
         <v>203</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T72" s="1">
         <v>5</v>
       </c>
-      <c r="T50" s="1">
+      <c r="U72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O51" s="1">
+    <row r="73" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P73" s="1">
         <v>7</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="R73" s="2">
         <v>204</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T73" s="1">
         <v>3</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U73" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O52" s="1">
+    <row r="74" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P74" s="1">
         <v>8</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="R74" s="2">
         <v>204</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T74" s="1">
         <v>9</v>
       </c>
-      <c r="T52" s="1">
+      <c r="U74" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O53" s="1">
+    <row r="75" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P75" s="1">
         <v>9</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="R75" s="2">
         <v>206</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="S75" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T75" s="1">
         <v>7</v>
       </c>
-      <c r="T53" s="1">
+      <c r="U75" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O54" s="1">
+    <row r="76" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P76" s="1">
         <v>10</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="R76" s="2">
         <v>206</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T76" s="1">
         <v>3</v>
       </c>
-      <c r="T54" s="1">
+      <c r="U76" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O55" s="1">
+    <row r="77" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P77" s="1">
         <v>11</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="R77" s="2">
         <v>206</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="S77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T77" s="1">
         <v>2</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O56" s="1">
+    <row r="78" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P78" s="1">
         <v>12</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="R78" s="1">
         <v>201</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T78" s="1">
         <v>12</v>
       </c>
-      <c r="T56" s="1">
+      <c r="U78" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C50:L50"/>
-    <mergeCell ref="O22:X23"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="C40:L41"/>
-    <mergeCell ref="C45:L46"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C3:L4"/>
-    <mergeCell ref="C22:L23"/>
-    <mergeCell ref="O3:AB4"/>
+    <mergeCell ref="C3:M4"/>
+    <mergeCell ref="C22:M23"/>
+    <mergeCell ref="P3:W5"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C50:M50"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="C40:M41"/>
+    <mergeCell ref="C45:M46"/>
+    <mergeCell ref="C48:M48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
